--- a/drinks.xlsx
+++ b/drinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vinic\PycharmProjects\alcohol_consumption_clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA0A66-5CF6-489A-9136-B1318D57D97A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A4D6A8-C6CE-4353-9A78-0899244BCD05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7630F952-1D3E-4021-BFE0-F474E796D0C9}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$194</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$I$194</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="318">
   <si>
     <t>country</t>
   </si>
@@ -45,15 +45,6 @@
     <t>total_litres_of_pure_alcohol</t>
   </si>
   <si>
-    <t>Continente</t>
-  </si>
-  <si>
-    <t>Região</t>
-  </si>
-  <si>
-    <t>População</t>
-  </si>
-  <si>
     <t>Djibouti</t>
   </si>
   <si>
@@ -979,6 +970,18 @@
   </si>
   <si>
     <t>Cyprus</t>
+  </si>
+  <si>
+    <t>continente</t>
+  </si>
+  <si>
+    <t>região</t>
+  </si>
+  <si>
+    <t>população</t>
+  </si>
+  <si>
+    <t>população urbana (%)</t>
   </si>
 </sst>
 </file>
@@ -1014,9 +1017,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1331,18 +1335,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB84695C-58AD-421E-A260-07CDD067CBCB}">
-  <dimension ref="A1:H194"/>
+  <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="8.88671875" customWidth="1"/>
-    <col min="8" max="8" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1359,18 +1371,21 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>314</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>79</v>
@@ -1382,21 +1397,24 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H2" s="1">
         <v>1409517397</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2">
+        <v>59.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B3">
         <v>9</v>
@@ -1408,21 +1426,24 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1">
         <v>1339180127</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>249</v>
@@ -1434,21 +1455,24 @@
         <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H4" s="1">
         <v>324459463</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -1460,21 +1484,24 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5" s="1">
         <v>263991379</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>245</v>
@@ -1486,21 +1513,24 @@
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H6" s="1">
         <v>209288278</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>86.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1512,21 +1542,24 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H7" s="1">
         <v>197015955</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7">
+        <v>36.700000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>42</v>
@@ -1538,21 +1571,24 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1">
         <v>190886311</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1564,21 +1600,24 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H9" s="1">
         <v>164669751</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10">
         <v>247</v>
@@ -1590,21 +1629,24 @@
         <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H10" s="1">
         <v>143989754</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>74.400000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B11">
         <v>238</v>
@@ -1616,21 +1658,24 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H11" s="1">
         <v>129163276</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B12">
         <v>77</v>
@@ -1642,21 +1687,24 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>92</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" t="s">
-        <v>95</v>
       </c>
       <c r="H12" s="1">
         <v>127484450</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12">
+        <v>91.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B13">
         <v>20</v>
@@ -1668,21 +1716,24 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H13" s="1">
         <v>104957438</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B14">
         <v>71</v>
@@ -1694,21 +1745,24 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1">
         <v>104918090</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14">
+        <v>46.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -1720,21 +1774,24 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H15" s="1">
         <v>97553151</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B16">
         <v>111</v>
@@ -1746,21 +1803,24 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1">
         <v>95540800</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B17">
         <v>346</v>
@@ -1772,21 +1832,24 @@
         <v>175</v>
       </c>
       <c r="E17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1">
         <v>82114224</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17">
+        <v>77.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -1798,21 +1861,24 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="1">
         <v>81339988</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1824,21 +1890,24 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H19" s="1">
         <v>81162788</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19">
+        <v>74.900000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B20">
         <v>51</v>
@@ -1850,21 +1919,24 @@
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H20" s="1">
         <v>80745020</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B21">
         <v>99</v>
@@ -1876,21 +1948,24 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H21" s="1">
         <v>69037513</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>49.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B22">
         <v>219</v>
@@ -1902,21 +1977,24 @@
         <v>195</v>
       </c>
       <c r="E22" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H22" s="1">
         <v>66181585</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B23">
         <v>127</v>
@@ -1928,21 +2006,24 @@
         <v>370</v>
       </c>
       <c r="E23" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H23" s="1">
         <v>64979548</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B24">
         <v>85</v>
@@ -1954,21 +2035,24 @@
         <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H24" s="1">
         <v>59359900</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24">
+        <v>70.400000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B25">
         <v>36</v>
@@ -1980,21 +2064,24 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G25" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H25" s="1">
         <v>57310019</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B26">
         <v>225</v>
@@ -2006,21 +2093,24 @@
         <v>81</v>
       </c>
       <c r="E26" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H26" s="1">
         <v>56717156</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -2032,21 +2122,24 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
         <v>19</v>
       </c>
-      <c r="F27" t="s">
-        <v>22</v>
-      </c>
       <c r="G27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H27" s="1">
         <v>53370609</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B28">
         <v>140</v>
@@ -2058,21 +2151,24 @@
         <v>9</v>
       </c>
       <c r="E28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H28" s="1">
         <v>50982212</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>81.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B29">
         <v>58</v>
@@ -2084,21 +2180,24 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G29" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H29" s="1">
         <v>49699862</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B30">
         <v>159</v>
@@ -2110,21 +2209,24 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H30" s="1">
         <v>49065615</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B31">
         <v>284</v>
@@ -2136,21 +2238,24 @@
         <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H31" s="1">
         <v>46354321</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31">
+        <v>80.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B32">
         <v>193</v>
@@ -2162,21 +2267,24 @@
         <v>221</v>
       </c>
       <c r="E32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F32" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H32" s="1">
         <v>44271041</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B33">
         <v>206</v>
@@ -2188,21 +2296,24 @@
         <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H33" s="1">
         <v>44222947</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34">
         <v>45</v>
@@ -2214,21 +2325,24 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H34" s="1">
         <v>42862958</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B35">
         <v>25</v>
@@ -2240,21 +2354,24 @@
         <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H35" s="1">
         <v>41318142</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <v>72.599999999999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B36">
         <v>8</v>
@@ -2266,21 +2383,24 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H36" s="1">
         <v>40533330</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B37">
         <v>9</v>
@@ -2292,21 +2412,24 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F37" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G37" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H37" s="1">
         <v>38274618</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B38">
         <v>343</v>
@@ -2318,21 +2441,24 @@
         <v>56</v>
       </c>
       <c r="E38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H38" s="1">
         <v>38170712</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39">
         <v>240</v>
@@ -2344,21 +2470,24 @@
         <v>100</v>
       </c>
       <c r="E39" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G39" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H39" s="1">
         <v>36624199</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <v>81.400000000000006</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B40">
         <v>12</v>
@@ -2370,21 +2499,24 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H40" s="1">
         <v>35739580</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -2396,21 +2528,24 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F41" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H41" s="1">
         <v>35530081</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -2422,21 +2557,24 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
         <v>19</v>
       </c>
-      <c r="F42" t="s">
-        <v>22</v>
-      </c>
       <c r="G42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H42" s="1">
         <v>32938213</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B43">
         <v>163</v>
@@ -2448,21 +2586,24 @@
         <v>21</v>
       </c>
       <c r="E43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H43" s="1">
         <v>32165485</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <v>77.900000000000006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B44">
         <v>333</v>
@@ -2474,21 +2615,24 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H44" s="1">
         <v>31977065</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <v>88.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B45">
         <v>25</v>
@@ -2500,21 +2644,24 @@
         <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H45" s="1">
         <v>31910641</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B46">
         <v>13</v>
@@ -2526,21 +2673,24 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F46" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H46" s="1">
         <v>31624264</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B47">
         <v>217</v>
@@ -2552,21 +2702,24 @@
         <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H47" s="1">
         <v>29784193</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -2578,21 +2731,24 @@
         <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G48" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H48" s="1">
         <v>29668834</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B49">
         <v>5</v>
@@ -2604,21 +2760,24 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F49" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H49" s="1">
         <v>29304998</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B50">
         <v>31</v>
@@ -2630,21 +2789,24 @@
         <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H50" s="1">
         <v>28833629</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B51">
         <v>6</v>
@@ -2656,21 +2818,24 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
         <v>19</v>
       </c>
-      <c r="F51" t="s">
-        <v>22</v>
-      </c>
       <c r="G51" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H51" s="1">
         <v>28250420</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B52">
         <v>26</v>
@@ -2682,21 +2847,24 @@
         <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G52" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H52" s="1">
         <v>25570895</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2708,21 +2876,24 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F53" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G53" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H53" s="1">
         <v>25490965</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <v>61.9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B54">
         <v>261</v>
@@ -2734,21 +2905,24 @@
         <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F54" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H54" s="1">
         <v>24450561</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B55">
         <v>37</v>
@@ -2760,21 +2934,24 @@
         <v>7</v>
       </c>
       <c r="E55" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H55" s="1">
         <v>24294750</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B56">
         <v>147</v>
@@ -2786,21 +2963,24 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G56" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H56" s="1">
         <v>24053727</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -2812,21 +2992,24 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G57" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H57" s="1">
         <v>21477348</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B58">
         <v>16</v>
@@ -2838,21 +3021,24 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F58" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H58" s="1">
         <v>20876917</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B59">
         <v>297</v>
@@ -2864,21 +3050,24 @@
         <v>167</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G59" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H59" s="1">
         <v>19679306</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B60">
         <v>25</v>
@@ -2890,21 +3079,24 @@
         <v>7</v>
       </c>
       <c r="E60" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G60" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H60" s="1">
         <v>19193382</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B61">
         <v>8</v>
@@ -2916,21 +3108,24 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H61" s="1">
         <v>18622104</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -2942,21 +3137,24 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H62" s="1">
         <v>18541980</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -2968,21 +3166,24 @@
         <v>16</v>
       </c>
       <c r="E63" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H63" s="1">
         <v>18269868</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B64">
         <v>124</v>
@@ -2994,21 +3195,24 @@
         <v>12</v>
       </c>
       <c r="E64" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G64" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H64" s="1">
         <v>18204499</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B65">
         <v>130</v>
@@ -3020,21 +3224,24 @@
         <v>172</v>
       </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F65" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H65" s="1">
         <v>18054726</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B66">
         <v>32</v>
@@ -3046,21 +3253,24 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H66" s="1">
         <v>17094130</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B67">
         <v>251</v>
@@ -3072,21 +3282,24 @@
         <v>190</v>
       </c>
       <c r="E67" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H67" s="1">
         <v>17035938</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68">
         <v>53</v>
@@ -3098,21 +3311,24 @@
         <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G68" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H68" s="1">
         <v>16913503</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B69">
         <v>162</v>
@@ -3124,21 +3340,24 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F69" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G69" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H69" s="1">
         <v>16624858</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B70">
         <v>64</v>
@@ -3150,21 +3369,24 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H70" s="1">
         <v>16529904</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B71">
         <v>57</v>
@@ -3176,21 +3398,24 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F71" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H71" s="1">
         <v>16005373</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B72">
         <v>9</v>
@@ -3202,21 +3427,24 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H72" s="1">
         <v>15850567</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B73">
         <v>15</v>
@@ -3228,21 +3456,24 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H73" s="1">
         <v>14899994</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -3254,21 +3485,24 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H74" s="1">
         <v>14742523</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B75">
         <v>9</v>
@@ -3280,21 +3514,24 @@
         <v>2</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H75" s="1">
         <v>12717176</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B76">
         <v>43</v>
@@ -3306,21 +3543,24 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H76" s="1">
         <v>12208407</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B77">
         <v>51</v>
@@ -3332,21 +3572,24 @@
         <v>20</v>
       </c>
       <c r="E77" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H77" s="1">
         <v>11532127</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B78">
         <v>93</v>
@@ -3358,21 +3601,24 @@
         <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H78" s="1">
         <v>11484636</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B79">
         <v>295</v>
@@ -3384,21 +3630,24 @@
         <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H79" s="1">
         <v>11429336</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B80">
         <v>34</v>
@@ -3410,21 +3659,24 @@
         <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G80" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H80" s="1">
         <v>11175692</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B81">
         <v>133</v>
@@ -3436,21 +3688,24 @@
         <v>218</v>
       </c>
       <c r="E81" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H81" s="1">
         <v>11159773</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <v>79.099999999999994</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B82">
         <v>167</v>
@@ -3462,21 +3717,24 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G82" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H82" s="1">
         <v>11051600</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -3488,21 +3746,24 @@
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H83" s="1">
         <v>10981229</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B84">
         <v>88</v>
@@ -3514,21 +3775,24 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G84" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H84" s="1">
         <v>10864245</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B85">
         <v>193</v>
@@ -3540,21 +3804,24 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H85" s="1">
         <v>10766998</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <v>81.099999999999994</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B86">
         <v>361</v>
@@ -3566,21 +3833,24 @@
         <v>134</v>
       </c>
       <c r="E86" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G86" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H86" s="1">
         <v>10618303</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B87">
         <v>194</v>
@@ -3592,21 +3862,24 @@
         <v>339</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H87" s="1">
         <v>10329506</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B88">
         <v>152</v>
@@ -3618,21 +3891,24 @@
         <v>186</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G88" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H88" s="1">
         <v>9910701</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <v>87.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B89">
         <v>21</v>
@@ -3644,21 +3920,24 @@
         <v>5</v>
       </c>
       <c r="E89" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G89" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H89" s="1">
         <v>9827589</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B90">
         <v>234</v>
@@ -3670,21 +3949,24 @@
         <v>185</v>
       </c>
       <c r="E90" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G90" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H90" s="1">
         <v>9721559</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <v>71.400000000000006</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B91">
         <v>6</v>
@@ -3696,21 +3978,24 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F91" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G91" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H91" s="1">
         <v>9702353</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B92">
         <v>142</v>
@@ -3722,21 +4007,24 @@
         <v>42</v>
       </c>
       <c r="E92" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G92" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H92" s="1">
         <v>9468338</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <v>78.599999999999994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B93">
         <v>16</v>
@@ -3748,21 +4036,24 @@
         <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F93" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G93" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H93" s="1">
         <v>9400145</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B94">
         <v>69</v>
@@ -3774,21 +4065,24 @@
         <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F94" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G94" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H94" s="1">
         <v>9265067</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <v>57.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B95">
         <v>2</v>
@@ -3800,21 +4094,24 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F95" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G95" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H95" s="1">
         <v>8921343</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B96">
         <v>283</v>
@@ -3826,21 +4123,24 @@
         <v>127</v>
       </c>
       <c r="E96" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H96" s="1">
         <v>8790574</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>56.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B97">
         <v>279</v>
@@ -3852,21 +4152,24 @@
         <v>191</v>
       </c>
       <c r="E97" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H97" s="1">
         <v>8735453</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <v>58.3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B98">
         <v>185</v>
@@ -3878,21 +4181,24 @@
         <v>280</v>
       </c>
       <c r="E98" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G98" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H98" s="1">
         <v>8476005</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B99">
         <v>63</v>
@@ -3904,21 +4210,24 @@
         <v>9</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F99" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G99" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H99" s="1">
         <v>8321570</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <v>92.4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B100">
         <v>44</v>
@@ -3930,21 +4239,24 @@
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H100" s="1">
         <v>8251162</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <v>13.2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B101">
         <v>36</v>
@@ -3956,21 +4268,24 @@
         <v>19</v>
       </c>
       <c r="E101" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H101" s="1">
         <v>7797694</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B102">
         <v>25</v>
@@ -3982,21 +4297,24 @@
         <v>2</v>
       </c>
       <c r="E102" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F102" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G102" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H102" s="1">
         <v>7557212</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B103">
         <v>231</v>
@@ -4008,21 +4326,24 @@
         <v>94</v>
       </c>
       <c r="E103" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F103" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G103" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H103" s="1">
         <v>7084571</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B104">
         <v>62</v>
@@ -4034,21 +4355,24 @@
         <v>123</v>
       </c>
       <c r="E104" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F104" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G104" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H104" s="1">
         <v>6858160</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B105">
         <v>213</v>
@@ -4060,21 +4384,24 @@
         <v>74</v>
       </c>
       <c r="E105" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G105" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H105" s="1">
         <v>6811297</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>61.6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B106">
         <v>52</v>
@@ -4086,21 +4413,24 @@
         <v>2</v>
       </c>
       <c r="E106" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F106" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G106" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H106" s="1">
         <v>6377853</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -4112,21 +4442,24 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F107" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G107" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H107" s="1">
         <v>6374616</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <v>80.099999999999994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B108">
         <v>78</v>
@@ -4138,21 +4471,24 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F108" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G108" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H108" s="1">
         <v>6217581</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B109">
         <v>20</v>
@@ -4164,21 +4500,24 @@
         <v>31</v>
       </c>
       <c r="E109" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G109" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H109" s="1">
         <v>6082357</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <v>88.6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B110">
         <v>31</v>
@@ -4190,21 +4529,24 @@
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F110" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H110" s="1">
         <v>6045117</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B111">
         <v>19</v>
@@ -4216,21 +4558,24 @@
         <v>32</v>
       </c>
       <c r="E111" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H111" s="1">
         <v>5758075</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B112">
         <v>224</v>
@@ -4242,21 +4587,24 @@
         <v>278</v>
       </c>
       <c r="E112" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G112" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H112" s="1">
         <v>5733551</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <v>87.9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B113">
         <v>60</v>
@@ -4268,21 +4616,24 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G113" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H113" s="1">
         <v>5708844</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B114">
         <v>263</v>
@@ -4294,21 +4645,24 @@
         <v>97</v>
       </c>
       <c r="E114" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G114" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H114" s="1">
         <v>5523231</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <v>85.4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B115">
         <v>196</v>
@@ -4320,21 +4674,24 @@
         <v>116</v>
       </c>
       <c r="E115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F115" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G115" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H115" s="1">
         <v>5447662</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B116">
         <v>169</v>
@@ -4346,21 +4703,24 @@
         <v>129</v>
       </c>
       <c r="E116" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F116" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G116" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H116" s="1">
         <v>5305383</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>82.2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B117">
         <v>76</v>
@@ -4372,21 +4732,24 @@
         <v>9</v>
       </c>
       <c r="E117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G117" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H117" s="1">
         <v>5260750</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <v>66.900000000000006</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B118">
         <v>18</v>
@@ -4398,21 +4761,24 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F118" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G118" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H118" s="1">
         <v>5068831</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B119">
         <v>149</v>
@@ -4424,21 +4790,24 @@
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G119" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H119" s="1">
         <v>4905769</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <v>79.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B120">
         <v>313</v>
@@ -4450,21 +4819,24 @@
         <v>165</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F120" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G120" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H120" s="1">
         <v>4761657</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B121">
         <v>19</v>
@@ -4476,21 +4848,24 @@
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F121" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G121" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H121" s="1">
         <v>4731906</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B122">
         <v>203</v>
@@ -4502,21 +4877,24 @@
         <v>175</v>
       </c>
       <c r="E122" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F122" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H122" s="1">
         <v>4705818</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B123">
         <v>17</v>
@@ -4528,21 +4906,24 @@
         <v>1</v>
       </c>
       <c r="E123" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F123" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H123" s="1">
         <v>4659080</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <v>41.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B124">
         <v>22</v>
@@ -4554,21 +4935,24 @@
         <v>1</v>
       </c>
       <c r="E124" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F124" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G124" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H124" s="1">
         <v>4636262</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <v>84.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4580,21 +4964,24 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F125" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G125" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H125" s="1">
         <v>4420184</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B126">
         <v>230</v>
@@ -4606,21 +4993,24 @@
         <v>254</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G126" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H126" s="1">
         <v>4189353</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4632,21 +5022,24 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F127" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G127" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H127" s="1">
         <v>4136528</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B128">
         <v>285</v>
@@ -4658,21 +5051,24 @@
         <v>18</v>
       </c>
       <c r="E128" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G128" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H128" s="1">
         <v>4098587</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B129">
         <v>109</v>
@@ -4684,21 +5080,24 @@
         <v>18</v>
       </c>
       <c r="E129" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G129" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H129" s="1">
         <v>4051212</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B130">
         <v>52</v>
@@ -4710,21 +5109,24 @@
         <v>149</v>
       </c>
       <c r="E130" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F130" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G130" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H130" s="1">
         <v>3912061</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <v>58.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B131">
         <v>76</v>
@@ -4736,21 +5138,24 @@
         <v>8</v>
       </c>
       <c r="E131" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H131" s="1">
         <v>3507017</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <v>48.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B132">
         <v>115</v>
@@ -4762,21 +5167,24 @@
         <v>220</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G132" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H132" s="1">
         <v>3456750</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B133">
         <v>77</v>
@@ -4788,21 +5196,24 @@
         <v>8</v>
       </c>
       <c r="E133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G133" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H133" s="1">
         <v>3075647</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>68.400000000000006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B134">
         <v>21</v>
@@ -4814,21 +5225,24 @@
         <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F134" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G134" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H134" s="1">
         <v>2930450</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <v>63.1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B135">
         <v>89</v>
@@ -4840,21 +5254,24 @@
         <v>54</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H135" s="1">
         <v>2930187</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B136">
         <v>82</v>
@@ -4866,21 +5283,24 @@
         <v>9</v>
       </c>
       <c r="E136" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F136" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H136" s="1">
         <v>2890299</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <v>55.7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B137">
         <v>343</v>
@@ -4892,21 +5312,24 @@
         <v>56</v>
       </c>
       <c r="E137" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G137" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H137" s="1">
         <v>2890297</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <v>67.7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4918,21 +5341,24 @@
         <v>7</v>
       </c>
       <c r="E138" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F138" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G138" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H138" s="1">
         <v>2639211</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>99.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B139">
         <v>376</v>
@@ -4944,21 +5370,24 @@
         <v>1</v>
       </c>
       <c r="E139" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F139" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G139" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H139" s="1">
         <v>2533794</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B140">
         <v>173</v>
@@ -4970,21 +5399,24 @@
         <v>35</v>
       </c>
       <c r="E140" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F140" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G140" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H140" s="1">
         <v>2291661</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B141">
         <v>82</v>
@@ -4996,21 +5428,24 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F141" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G141" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H141" s="1">
         <v>2233339</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <v>28.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B142">
         <v>8</v>
@@ -5022,21 +5457,24 @@
         <v>1</v>
       </c>
       <c r="E142" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G142" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H142" s="1">
         <v>2100568</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <v>61.3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B143">
         <v>106</v>
@@ -5048,21 +5486,24 @@
         <v>86</v>
       </c>
       <c r="E143" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G143" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H143" s="1">
         <v>2083160</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B144">
         <v>270</v>
@@ -5074,21 +5515,24 @@
         <v>276</v>
       </c>
       <c r="E144" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G144" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H144" s="1">
         <v>2079976</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>54.5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B145">
         <v>347</v>
@@ -5100,21 +5544,24 @@
         <v>59</v>
       </c>
       <c r="E145" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F145" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G145" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H145" s="1">
         <v>2025137</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <v>89.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B146">
         <v>281</v>
@@ -5126,21 +5573,24 @@
         <v>62</v>
       </c>
       <c r="E146" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F146" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G146" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H146" s="1">
         <v>1949670</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <v>68.099999999999994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B147">
         <v>28</v>
@@ -5152,21 +5602,24 @@
         <v>21</v>
       </c>
       <c r="E147" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H147" s="1">
         <v>1861283</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B148">
         <v>42</v>
@@ -5178,21 +5631,24 @@
         <v>7</v>
       </c>
       <c r="E148" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G148" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H148" s="1">
         <v>1492584</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <v>89.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B149">
         <v>197</v>
@@ -5204,21 +5660,24 @@
         <v>7</v>
       </c>
       <c r="E149" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F149" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H149" s="1">
         <v>1369125</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B150">
         <v>90</v>
@@ -5230,21 +5689,24 @@
         <v>2</v>
       </c>
       <c r="E150" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F150" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H150" s="1">
         <v>1367254</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B151">
         <v>224</v>
@@ -5256,21 +5718,24 @@
         <v>59</v>
       </c>
       <c r="E151" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G151" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H151" s="1">
         <v>1309632</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5282,21 +5747,24 @@
         <v>4</v>
       </c>
       <c r="E152" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152" t="s">
         <v>19</v>
       </c>
-      <c r="F152" t="s">
-        <v>22</v>
-      </c>
       <c r="G152" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H152" s="1">
         <v>1296311</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <v>30.6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B153">
         <v>92</v>
@@ -5308,21 +5776,24 @@
         <v>233</v>
       </c>
       <c r="E153" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F153" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G153" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H153" s="1">
         <v>1267689</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>72.099999999999994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B154">
         <v>98</v>
@@ -5334,21 +5805,24 @@
         <v>18</v>
       </c>
       <c r="E154" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F154" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G154" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H154" s="1">
         <v>1265138</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <v>40.799999999999997</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B155">
         <v>192</v>
@@ -5360,21 +5834,24 @@
         <v>113</v>
       </c>
       <c r="E155" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F155" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G155" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H155" s="1">
         <v>1179551</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B156">
         <v>15</v>
@@ -5386,21 +5863,24 @@
         <v>3</v>
       </c>
       <c r="E156" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F156" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G156" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H156" s="1">
         <v>956990</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <v>77.8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B157">
         <v>77</v>
@@ -5412,21 +5892,24 @@
         <v>1</v>
       </c>
       <c r="E157" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G157" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H157" s="1">
         <v>905500</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <v>56.2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5438,21 +5921,24 @@
         <v>1</v>
       </c>
       <c r="E158" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F158" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H158" s="1">
         <v>813910</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B159">
         <v>23</v>
@@ -5464,21 +5950,24 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F159" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G159" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H159" s="1">
         <v>807610</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B160">
         <v>93</v>
@@ -5490,21 +5979,24 @@
         <v>1</v>
       </c>
       <c r="E160" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F160" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G160" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H160" s="1">
         <v>777860</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B161">
         <v>31</v>
@@ -5516,21 +6008,24 @@
         <v>128</v>
       </c>
       <c r="E161" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F161" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G161" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H161" s="1">
         <v>628960</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <v>66.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B162">
         <v>56</v>
@@ -5542,21 +6037,24 @@
         <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G162" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H162" s="1">
         <v>611340</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B163">
         <v>236</v>
@@ -5568,21 +6066,24 @@
         <v>271</v>
       </c>
       <c r="E163" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F163" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G163" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H163" s="1">
         <v>583460</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B164">
         <v>128</v>
@@ -5594,21 +6095,24 @@
         <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G164" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H164" s="1">
         <v>563400</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <v>66.099999999999994</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B165">
         <v>194</v>
@@ -5620,21 +6124,24 @@
         <v>32</v>
       </c>
       <c r="E165" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G165" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H165" s="1">
         <v>546390</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B166">
         <v>144</v>
@@ -5646,21 +6153,24 @@
         <v>16</v>
       </c>
       <c r="E166" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F166" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H166" s="1">
         <v>546390</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -5672,21 +6182,24 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F167" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G167" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H167" s="1">
         <v>436330</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B168">
         <v>149</v>
@@ -5698,21 +6211,24 @@
         <v>120</v>
       </c>
       <c r="E168" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H168" s="1">
         <v>430840</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <v>94.6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B169">
         <v>31</v>
@@ -5724,21 +6240,24 @@
         <v>1</v>
       </c>
       <c r="E169" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F169" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G169" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H169" s="1">
         <v>428700</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <v>77.599999999999994</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B170">
         <v>122</v>
@@ -5750,21 +6269,24 @@
         <v>51</v>
       </c>
       <c r="E170" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F170" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G170" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H170" s="1">
         <v>395360</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B171">
         <v>263</v>
@@ -5776,21 +6298,24 @@
         <v>8</v>
       </c>
       <c r="E171" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G171" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H171" s="1">
         <v>374680</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <v>45.7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B172">
         <v>233</v>
@@ -5802,21 +6327,24 @@
         <v>78</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G172" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H172" s="1">
         <v>335030</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <v>93.8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B173">
         <v>143</v>
@@ -5828,21 +6356,24 @@
         <v>36</v>
       </c>
       <c r="E173" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F173" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G173" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H173" s="1">
         <v>285720</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B174">
         <v>21</v>
@@ -5854,21 +6385,24 @@
         <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F174" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H174" s="1">
         <v>276240</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B175">
         <v>56</v>
@@ -5880,21 +6414,24 @@
         <v>140</v>
       </c>
       <c r="E175" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F175" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G175" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H175" s="1">
         <v>204330</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B176">
         <v>105</v>
@@ -5906,21 +6443,24 @@
         <v>24</v>
       </c>
       <c r="E176" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F176" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H176" s="1">
         <v>196440</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B177">
         <v>171</v>
@@ -5932,21 +6472,24 @@
         <v>71</v>
       </c>
       <c r="E177" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F177" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H177" s="1">
         <v>178840</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B178">
         <v>21</v>
@@ -5958,21 +6501,24 @@
         <v>1</v>
       </c>
       <c r="E178" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F178" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H178" s="1">
         <v>116400</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <v>54.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B179">
         <v>120</v>
@@ -5984,21 +6530,24 @@
         <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F179" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H179" s="1">
         <v>109900</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <v>52.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B180">
         <v>36</v>
@@ -6010,21 +6559,24 @@
         <v>5</v>
       </c>
       <c r="E180" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F180" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G180" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H180" s="1">
         <v>108020</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B181">
         <v>199</v>
@@ -6036,21 +6588,24 @@
         <v>28</v>
       </c>
       <c r="E181" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F181" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G181" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H181" s="1">
         <v>107825</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <v>36.299999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B182">
         <v>62</v>
@@ -6062,21 +6617,24 @@
         <v>18</v>
       </c>
       <c r="E182" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F182" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G182" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H182" s="1">
         <v>105544</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B183">
         <v>102</v>
@@ -6088,21 +6646,24 @@
         <v>45</v>
       </c>
       <c r="E183" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F183" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G183" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H183" s="1">
         <v>102012</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B184">
         <v>157</v>
@@ -6114,21 +6675,24 @@
         <v>51</v>
       </c>
       <c r="E184" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G184" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H184" s="1">
         <v>94740</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <v>56.7</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B185">
         <v>245</v>
@@ -6140,21 +6704,24 @@
         <v>312</v>
       </c>
       <c r="E185" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G185" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H185" s="1">
         <v>76970</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B186">
         <v>52</v>
@@ -6166,21 +6733,24 @@
         <v>26</v>
       </c>
       <c r="E186" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F186" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G186" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H186" s="1">
         <v>73930</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -6192,21 +6762,24 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F187" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G187" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H187" s="1">
         <v>53130</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -6218,21 +6791,24 @@
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F188" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H188" s="1">
         <v>38700</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -6244,21 +6820,24 @@
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F189" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H189" s="1">
         <v>33400</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B190">
         <v>306</v>
@@ -6270,21 +6849,24 @@
         <v>23</v>
       </c>
       <c r="E190" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H190" s="1">
         <v>21730</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <v>79.900000000000006</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -6296,21 +6878,24 @@
         <v>74</v>
       </c>
       <c r="E191" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F191" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G191" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H191" s="1">
         <v>17380</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <v>75.099999999999994</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B192">
         <v>49</v>
@@ -6322,21 +6907,24 @@
         <v>8</v>
       </c>
       <c r="E192" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F192" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H192" s="1">
         <v>11360</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B193">
         <v>6</v>
@@ -6348,21 +6936,24 @@
         <v>9</v>
       </c>
       <c r="E193" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F193" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G193" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H193" s="1">
         <v>11190</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B194">
         <v>188</v>
@@ -6374,19 +6965,23 @@
         <v>7</v>
       </c>
       <c r="E194" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F194" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H194" s="1">
         <v>1618</v>
       </c>
+      <c r="I194">
+        <v>44.8</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I194" xr:uid="{8DAD206E-B175-461B-83F6-DA5A3AF537A5}"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>